--- a/biology/Zoologie/Conus_flammeacolor/Conus_flammeacolor.xlsx
+++ b/biology/Zoologie/Conus_flammeacolor/Conus_flammeacolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus flammeacolor est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Honduras et du Panama.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce s'étend le long du littoral occidental des Caraïbes et des îles et bancs au large. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure"[1].
 </t>
         </is>
       </c>
@@ -542,19 +554,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce s'étend le long du littoral occidental des Caraïbes et des îles et bancs au large. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_flammeacolor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_flammeacolor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus flammeacolor a été décrite pour la première fois en 1992 par le malacologiste américain Edward James Petuch (d)[2] dans la publication intitulée « La Conchiglia »[3],[4].
-Synonymes
-Conus (Dauciconus) flammeacolor Petuch, 1992 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus flammeacolor a été décrite pour la première fois en 1992 par le malacologiste américain Edward James Petuch (d) dans la publication intitulée « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_flammeacolor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_flammeacolor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) flammeacolor Petuch, 1992 · appellation alternative
 Dauciconus flammeacolor (Petuch, 1992) · non accepté
-Poremskiconus flammeacolor (Petuch, 1992) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus flammeacolor dans les principales bases sont les suivants :
+Poremskiconus flammeacolor (Petuch, 1992) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_flammeacolor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_flammeacolor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus flammeacolor dans les principales bases sont les suivants :
 CoL : 5ZXR6 - GBIF : 6510634 - iNaturalist : 431972 - IRMNG : 11704022 - TAXREF : 141191 - UICN : 192425 - WoRMS : 426500
 </t>
         </is>
